--- a/company_names.xlsx
+++ b/company_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwwaal\projects\Materiality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B80C352-EA90-48EA-B144-ADF3BDEECC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E569CA6A-E846-4391-8219-B10FFE3464C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98B6673A-4055-4A7E-828D-898490F1BE65}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">'companylist'!$A$1:$A$39</definedName>
+    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">'companylist'!$A$1:$A$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>company</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>Salling</t>
+  </si>
+  <si>
+    <t>CACTUS##</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>LU</t>
   </si>
 </sst>
 </file>
@@ -389,8 +398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:C39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:C39" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:C40" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C40" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2EF9EC90-9452-49C1-9513-C5A4B41A00B0}" uniqueName="1" name="company" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{C2F6E3CE-5E32-4344-AC0D-63FAAE7231D8}" uniqueName="2" name="retailer" queryTableFieldId="2" dataDxfId="1"/>
@@ -697,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED10488-CF62-4657-911E-0A228ACBFA06}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,6 +1144,17 @@
       </c>
       <c r="C39" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/company_names.xlsx
+++ b/company_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwwaal\projects\Materiality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E569CA6A-E846-4391-8219-B10FFE3464C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6F814-1E0B-4D98-9022-C280191D92B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98B6673A-4055-4A7E-828D-898490F1BE65}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>company</t>
   </si>
@@ -271,9 +271,6 @@
     <t>IE</t>
   </si>
   <si>
-    <t>Magasins-U</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rewe </t>
   </si>
   <si>
@@ -311,6 +308,27 @@
   </si>
   <si>
     <t>LU</t>
+  </si>
+  <si>
+    <t>ownership</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>Système-U</t>
+  </si>
+  <si>
+    <t>consumer_cooperative</t>
+  </si>
+  <si>
+    <t>retail_cooperative</t>
+  </si>
+  <si>
+    <t>employee_cooperative</t>
   </si>
 </sst>
 </file>
@@ -359,7 +377,10 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -387,23 +408,28 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneGegevens_1" connectionId="1" xr16:uid="{1E9FA255-4282-420F-A4DA-04AB2022C2EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4" unboundColumnsRight="2">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="5" unboundColumnsRight="3">
+    <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" dataBound="0" tableColumnId="2"/>
       <queryTableField id="3" dataBound="0" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:C40" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:C40" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2EF9EC90-9452-49C1-9513-C5A4B41A00B0}" uniqueName="1" name="company" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C2F6E3CE-5E32-4344-AC0D-63FAAE7231D8}" uniqueName="2" name="retailer" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{827F41BA-FF4C-4D63-98AB-5372199C3C3F}" uniqueName="3" name="country" queryTableFieldId="3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:D40" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D40" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">
+    <sortCondition ref="A1:A40"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2EF9EC90-9452-49C1-9513-C5A4B41A00B0}" uniqueName="1" name="company" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C2F6E3CE-5E32-4344-AC0D-63FAAE7231D8}" uniqueName="2" name="retailer" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{827F41BA-FF4C-4D63-98AB-5372199C3C3F}" uniqueName="3" name="country" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9357D298-C31F-4D37-9524-E171FBA29AF9}" uniqueName="4" name="ownership" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -706,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED10488-CF62-4657-911E-0A228ACBFA06}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,444 +743,564 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>87</v>
+      <c r="D40" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/company_names.xlsx
+++ b/company_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwwaal\projects\Materiality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6F814-1E0B-4D98-9022-C280191D92B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5FBFCA-9334-4643-82E0-71E71E2AC25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98B6673A-4055-4A7E-828D-898490F1BE65}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">'companylist'!$A$1:$A$40</definedName>
+    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">'companylist'!$A$1:$A$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="120">
   <si>
     <t>company</t>
   </si>
@@ -329,6 +329,84 @@
   </si>
   <si>
     <t>employee_cooperative</t>
+  </si>
+  <si>
+    <t>REMA1000</t>
+  </si>
+  <si>
+    <t>Rema 1000</t>
+  </si>
+  <si>
+    <t>JERONIMO</t>
+  </si>
+  <si>
+    <t>Jeronimo Martíns</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>MARKSSPE</t>
+  </si>
+  <si>
+    <t>Marks &amp; Spencer</t>
+  </si>
+  <si>
+    <t>EROSKI##</t>
+  </si>
+  <si>
+    <t>Eroski</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>DESPAR##</t>
+  </si>
+  <si>
+    <t>Despar</t>
+  </si>
+  <si>
+    <t>VEGE####</t>
+  </si>
+  <si>
+    <t>VéGé</t>
+  </si>
+  <si>
+    <t>SELEX###</t>
+  </si>
+  <si>
+    <t>Selex</t>
+  </si>
+  <si>
+    <t>EUROSPI</t>
+  </si>
+  <si>
+    <t>EuroSpin</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>full_service</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>CASINO#</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>SPARAUTR</t>
+  </si>
+  <si>
+    <t>Spar Austria</t>
+  </si>
+  <si>
+    <t>AT</t>
   </si>
 </sst>
 </file>
@@ -377,7 +455,10 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -408,28 +489,30 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneGegevens_1" connectionId="1" xr16:uid="{1E9FA255-4282-420F-A4DA-04AB2022C2EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5" unboundColumnsRight="3">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6" unboundColumnsRight="4">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" dataBound="0" tableColumnId="2"/>
       <queryTableField id="3" dataBound="0" tableColumnId="3"/>
       <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:D40" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D40" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:E50" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E50" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">
     <sortCondition ref="A1:A40"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2EF9EC90-9452-49C1-9513-C5A4B41A00B0}" uniqueName="1" name="company" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C2F6E3CE-5E32-4344-AC0D-63FAAE7231D8}" uniqueName="2" name="retailer" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{827F41BA-FF4C-4D63-98AB-5372199C3C3F}" uniqueName="3" name="country" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{9357D298-C31F-4D37-9524-E171FBA29AF9}" uniqueName="4" name="ownership" queryTableFieldId="4" dataDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2EF9EC90-9452-49C1-9513-C5A4B41A00B0}" uniqueName="1" name="company" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C2F6E3CE-5E32-4344-AC0D-63FAAE7231D8}" uniqueName="2" name="retailer" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{827F41BA-FF4C-4D63-98AB-5372199C3C3F}" uniqueName="3" name="country" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9357D298-C31F-4D37-9524-E171FBA29AF9}" uniqueName="4" name="ownership" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{8602A944-9299-497B-A023-4AE01391A881}" uniqueName="5" name="format" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED10488-CF62-4657-911E-0A228ACBFA06}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +826,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,8 +839,11 @@
       <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -770,8 +856,11 @@
       <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,8 +873,11 @@
       <c r="D3" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +890,11 @@
       <c r="D4" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -812,8 +907,11 @@
       <c r="D5" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -826,8 +924,11 @@
       <c r="D6" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -840,8 +941,11 @@
       <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +958,11 @@
       <c r="D8" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -868,8 +975,11 @@
       <c r="D9" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -882,8 +992,11 @@
       <c r="D10" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -896,8 +1009,11 @@
       <c r="D11" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +1026,11 @@
       <c r="D12" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -924,8 +1043,11 @@
       <c r="D13" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -938,8 +1060,11 @@
       <c r="D14" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -952,8 +1077,11 @@
       <c r="D15" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,8 +1094,11 @@
       <c r="D16" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -980,8 +1111,11 @@
       <c r="D17" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -994,8 +1128,11 @@
       <c r="D18" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1008,8 +1145,11 @@
       <c r="D19" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1022,8 +1162,11 @@
       <c r="D20" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1036,8 +1179,11 @@
       <c r="D21" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1050,8 +1196,11 @@
       <c r="D22" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1064,8 +1213,11 @@
       <c r="D23" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1078,8 +1230,11 @@
       <c r="D24" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1092,8 +1247,11 @@
       <c r="D25" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1106,8 +1264,11 @@
       <c r="D26" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1120,8 +1281,11 @@
       <c r="D27" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1298,11 @@
       <c r="D28" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1148,8 +1315,11 @@
       <c r="D29" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1162,8 +1332,11 @@
       <c r="D30" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1176,8 +1349,11 @@
       <c r="D31" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1190,8 +1366,11 @@
       <c r="D32" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1204,8 +1383,11 @@
       <c r="D33" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1218,8 +1400,11 @@
       <c r="D34" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -1232,8 +1417,11 @@
       <c r="D35" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1246,8 +1434,11 @@
       <c r="D36" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1260,8 +1451,11 @@
       <c r="D37" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1274,8 +1468,11 @@
       <c r="D38" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1288,8 +1485,11 @@
       <c r="D39" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -1301,6 +1501,179 @@
       </c>
       <c r="D40" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/company_names.xlsx
+++ b/company_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwwaal\projects\Materiality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5FBFCA-9334-4643-82E0-71E71E2AC25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6DABAB-BCD5-4E4C-A0A8-10DB705B0020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98B6673A-4055-4A7E-828D-898490F1BE65}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">'companylist'!$A$1:$A$50</definedName>
+    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">'companylist'!$A$1:$A$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="123">
   <si>
     <t>company</t>
   </si>
@@ -394,9 +394,6 @@
     <t>format</t>
   </si>
   <si>
-    <t>CASINO#</t>
-  </si>
-  <si>
     <t>Casino</t>
   </si>
   <si>
@@ -407,6 +404,18 @@
   </si>
   <si>
     <t>AT</t>
+  </si>
+  <si>
+    <t>METROAG#</t>
+  </si>
+  <si>
+    <t>Metro AG</t>
+  </si>
+  <si>
+    <t>wholesale</t>
+  </si>
+  <si>
+    <t>CASINO##</t>
   </si>
 </sst>
 </file>
@@ -502,10 +511,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:E50" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E50" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">
-    <sortCondition ref="A1:A40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:E51" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E51" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
+    <sortCondition ref="C1:C51"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2EF9EC90-9452-49C1-9513-C5A4B41A00B0}" uniqueName="1" name="company" queryTableFieldId="1" dataDxfId="4"/>
@@ -815,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED10488-CF62-4657-911E-0A228ACBFA06}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,50 +854,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>113</v>
@@ -896,33 +905,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>112</v>
@@ -930,16 +939,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>112</v>
@@ -947,16 +956,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>113</v>
@@ -964,33 +973,33 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>113</v>
@@ -998,50 +1007,50 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>113</v>
@@ -1049,16 +1058,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>113</v>
@@ -1066,16 +1075,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>113</v>
@@ -1083,16 +1092,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>113</v>
@@ -1100,13 +1109,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>92</v>
@@ -1117,16 +1126,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>113</v>
@@ -1134,16 +1143,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>113</v>
@@ -1151,16 +1160,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>113</v>
@@ -1168,16 +1177,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>113</v>
@@ -1185,16 +1194,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>113</v>
@@ -1202,64 +1211,64 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>92</v>
@@ -1270,13 +1279,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>92</v>
@@ -1287,16 +1296,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>113</v>
@@ -1304,30 +1313,30 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>88</v>
@@ -1338,33 +1347,33 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>113</v>
@@ -1372,13 +1381,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>89</v>
@@ -1389,16 +1398,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>113</v>
@@ -1406,16 +1415,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -1423,16 +1432,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>113</v>
@@ -1440,30 +1449,30 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>89</v>
@@ -1474,13 +1483,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>89</v>
@@ -1491,13 +1500,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>91</v>
@@ -1508,33 +1517,33 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>113</v>
@@ -1542,10 +1551,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>63</v>
@@ -1554,21 +1563,21 @@
         <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>113</v>
@@ -1576,16 +1585,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>113</v>
@@ -1593,16 +1602,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>113</v>
@@ -1610,16 +1619,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>113</v>
@@ -1627,30 +1636,30 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>89</v>
@@ -1661,18 +1670,35 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>113</v>
       </c>
     </row>

--- a/company_names.xlsx
+++ b/company_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwwaal\projects\Materiality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6DABAB-BCD5-4E4C-A0A8-10DB705B0020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE086D7-90FC-4835-8DE5-37511221B0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98B6673A-4055-4A7E-828D-898490F1BE65}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">'companylist'!$A$1:$A$51</definedName>
+    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">'companylist'!$A$1:$A$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="127">
   <si>
     <t>company</t>
   </si>
@@ -379,9 +379,6 @@
     <t>Selex</t>
   </si>
   <si>
-    <t>EUROSPI</t>
-  </si>
-  <si>
     <t>EuroSpin</t>
   </si>
   <si>
@@ -416,6 +413,21 @@
   </si>
   <si>
     <t>CASINO##</t>
+  </si>
+  <si>
+    <t>MORRISON</t>
+  </si>
+  <si>
+    <t>Morrisons</t>
+  </si>
+  <si>
+    <t>EUROSPIN</t>
+  </si>
+  <si>
+    <t>NORMA###</t>
+  </si>
+  <si>
+    <t>Norma</t>
   </si>
 </sst>
 </file>
@@ -511,10 +523,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:E51" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E51" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
-    <sortCondition ref="C1:C51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}" name="companylist" displayName="companylist" ref="A1:E53" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E53" xr:uid="{39BC6009-095D-4A18-A84C-49D17C1CA339}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E52">
+    <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2EF9EC90-9452-49C1-9513-C5A4B41A00B0}" uniqueName="1" name="company" queryTableFieldId="1" dataDxfId="4"/>
@@ -824,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED10488-CF62-4657-911E-0A228ACBFA06}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,38 +861,38 @@
         <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>112</v>
@@ -888,101 +900,101 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>112</v>
@@ -990,373 +1002,373 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>112</v>
@@ -1364,98 +1376,98 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>88</v>
@@ -1466,95 +1478,95 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>63</v>
@@ -1568,75 +1580,75 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>50</v>
@@ -1648,12 +1660,12 @@
         <v>89</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
@@ -1665,41 +1677,75 @@
         <v>89</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
